--- a/SingleplateMIC/MIC_InputTemplate.xlsx
+++ b/SingleplateMIC/MIC_InputTemplate.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sebastian\Desktop\MSc Leiden 2nd Year\##LabAst Works\20201115_UpstreamMIC\MIC_Uploader_vx5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sebastian\Desktop\MSc Leiden 2nd Year\##LabAst Works\#OT2_Main\SingleplateMIC\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -40,12 +40,6 @@
     <t>CIP</t>
   </si>
   <si>
-    <t>TOB</t>
-  </si>
-  <si>
-    <t>AMI</t>
-  </si>
-  <si>
     <t>Antibiotic stock conc</t>
   </si>
   <si>
@@ -157,6 +151,12 @@
   </si>
   <si>
     <t>&gt;Leave medium-only (outer wells) blank! (0 mg/mL drug variables should still contain drug name)</t>
+  </si>
+  <si>
+    <t>TOB</t>
+  </si>
+  <si>
+    <t>MER</t>
   </si>
 </sst>
 </file>
@@ -599,7 +599,7 @@
   <dimension ref="A1:O64"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+      <selection activeCell="C15" sqref="C15:L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -617,10 +617,10 @@
         <v>1</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="F1" s="7"/>
       <c r="G1" s="7"/>
@@ -633,7 +633,7 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C2" s="6">
         <v>10000</v>
@@ -655,16 +655,16 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
@@ -677,35 +677,35 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C5" s="5">
         <v>200</v>
       </c>
       <c r="N5" s="9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B6" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="5">
+        <v>100</v>
+      </c>
+      <c r="D6" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="5">
-        <v>50</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="F6" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="10" t="s">
-        <v>26</v>
-      </c>
       <c r="N6" s="9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
@@ -748,7 +748,7 @@
     </row>
     <row r="10" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -763,12 +763,12 @@
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
       <c r="O10" s="11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2" t="s">
@@ -803,12 +803,12 @@
       </c>
       <c r="M11" s="2"/>
       <c r="O11" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2" t="s">
@@ -845,155 +845,155 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="M13" s="2"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="M14" s="2"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="2" t="s">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="M15" s="2"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="2" t="s">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="M16" s="2"/>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -1010,7 +1010,7 @@
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
@@ -1053,7 +1053,7 @@
     </row>
     <row r="21" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B21" s="2">
         <v>0</v>
@@ -1092,12 +1092,12 @@
         <v>0</v>
       </c>
       <c r="O21" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B22" s="2">
         <v>0</v>
@@ -1144,12 +1144,12 @@
         <v>0</v>
       </c>
       <c r="O22" s="11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B23" s="2">
         <v>0</v>
@@ -1198,7 +1198,7 @@
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B24" s="2">
         <v>0</v>
@@ -1247,7 +1247,7 @@
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B25" s="2">
         <v>0</v>
@@ -1296,7 +1296,7 @@
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B26" s="2">
         <v>0</v>
@@ -1345,7 +1345,7 @@
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B27" s="2">
         <v>0</v>
@@ -1394,7 +1394,7 @@
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B28" s="2">
         <v>0</v>
@@ -1435,7 +1435,7 @@
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
@@ -1478,338 +1478,338 @@
     </row>
     <row r="33" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M33" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="O33" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="L34" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="L35" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M35" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="L36" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M36" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="L37" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M37" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="L38" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M38" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="L39" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M39" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K40" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="L40" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M40" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
@@ -1852,7 +1852,7 @@
     </row>
     <row r="45" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -1867,236 +1867,236 @@
       <c r="L45" s="2"/>
       <c r="M45" s="2"/>
       <c r="O45" s="11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="46" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K46" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L46" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M46" s="2"/>
       <c r="O46" s="12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="47" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K47" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L47" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M47" s="2"/>
       <c r="O47" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K48" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L48" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M48" s="2"/>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K49" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L49" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M49" s="2"/>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K50" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L50" s="2"/>
       <c r="M50" s="2"/>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K51" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L51" s="2"/>
       <c r="M51" s="2"/>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -2113,7 +2113,7 @@
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
@@ -2156,7 +2156,7 @@
     </row>
     <row r="57" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B57" s="4" t="str">
         <f>CONCATENATE(B10," ",B21," ",B33," ",B45)</f>
@@ -2209,7 +2209,7 @@
     </row>
     <row r="58" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B58" s="4" t="str">
         <f t="shared" ref="B58:M64" si="3">CONCATENATE(B11," ",B22," ",B34," ",B46)</f>
@@ -2262,7 +2262,7 @@
     </row>
     <row r="59" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B59" s="4" t="str">
         <f t="shared" si="3"/>
@@ -2315,7 +2315,7 @@
     </row>
     <row r="60" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B60" s="4" t="str">
         <f t="shared" si="3"/>
@@ -2368,7 +2368,7 @@
     </row>
     <row r="61" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B61" s="4" t="str">
         <f t="shared" si="3"/>
@@ -2421,7 +2421,7 @@
     </row>
     <row r="62" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B62" s="4" t="str">
         <f t="shared" si="3"/>
@@ -2429,43 +2429,43 @@
       </c>
       <c r="C62" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>AMI 256 MED_A STR_A</v>
+        <v>MER 256 MED_A STR_A</v>
       </c>
       <c r="D62" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>AMI 128 MED_A STR_A</v>
+        <v>MER 128 MED_A STR_A</v>
       </c>
       <c r="E62" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>AMI 64 MED_A STR_A</v>
+        <v>MER 64 MED_A STR_A</v>
       </c>
       <c r="F62" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>AMI 32 MED_A STR_A</v>
+        <v>MER 32 MED_A STR_A</v>
       </c>
       <c r="G62" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>AMI 16 MED_A STR_A</v>
+        <v>MER 16 MED_A STR_A</v>
       </c>
       <c r="H62" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>AMI 8 MED_A STR_A</v>
+        <v>MER 8 MED_A STR_A</v>
       </c>
       <c r="I62" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>AMI 4 MED_A STR_A</v>
+        <v>MER 4 MED_A STR_A</v>
       </c>
       <c r="J62" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>AMI 2 MED_A STR_A</v>
+        <v>MER 2 MED_A STR_A</v>
       </c>
       <c r="K62" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>AMI 1 MED_A STR_A</v>
+        <v>MER 1 MED_A STR_A</v>
       </c>
       <c r="L62" s="4" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">AMI 0 MED_A </v>
+        <v xml:space="preserve">MER 0 MED_A </v>
       </c>
       <c r="M62" s="4" t="str">
         <f t="shared" si="3"/>
@@ -2474,7 +2474,7 @@
     </row>
     <row r="63" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B63" s="4" t="str">
         <f t="shared" si="3"/>
@@ -2482,43 +2482,43 @@
       </c>
       <c r="C63" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>AMI 256 MED_A STR_B</v>
+        <v>MER 256 MED_A STR_B</v>
       </c>
       <c r="D63" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>AMI 128 MED_A STR_B</v>
+        <v>MER 128 MED_A STR_B</v>
       </c>
       <c r="E63" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>AMI 64 MED_A STR_B</v>
+        <v>MER 64 MED_A STR_B</v>
       </c>
       <c r="F63" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>AMI 32 MED_A STR_B</v>
+        <v>MER 32 MED_A STR_B</v>
       </c>
       <c r="G63" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>AMI 16 MED_A STR_B</v>
+        <v>MER 16 MED_A STR_B</v>
       </c>
       <c r="H63" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>AMI 8 MED_A STR_B</v>
+        <v>MER 8 MED_A STR_B</v>
       </c>
       <c r="I63" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>AMI 4 MED_A STR_B</v>
+        <v>MER 4 MED_A STR_B</v>
       </c>
       <c r="J63" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>AMI 2 MED_A STR_B</v>
+        <v>MER 2 MED_A STR_B</v>
       </c>
       <c r="K63" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>AMI 1 MED_A STR_B</v>
+        <v>MER 1 MED_A STR_B</v>
       </c>
       <c r="L63" s="4" t="str">
         <f t="shared" si="3"/>
-        <v xml:space="preserve">AMI 0 MED_A </v>
+        <v xml:space="preserve">MER 0 MED_A </v>
       </c>
       <c r="M63" s="4" t="str">
         <f t="shared" si="3"/>
@@ -2527,7 +2527,7 @@
     </row>
     <row r="64" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B64" s="4" t="str">
         <f t="shared" si="3"/>
